--- a/input/DANE/1960.xlsx
+++ b/input/DANE/1960.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josetavera/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6380227D-795A-7548-BCE3-8C005AD87E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4194E52-E646-CD4B-9E09-4067FBDB40B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="26740" windowHeight="13780" xr2:uid="{8C564586-D6AE-7F4D-BE10-9CB0ED15B90F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="400">
   <si>
     <t>Oficina</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Concordia</t>
   </si>
   <si>
-    <t>Chigorod6 .</t>
-  </si>
-  <si>
     <t>Dabeiba</t>
   </si>
   <si>
@@ -162,12 +159,6 @@
     <t>Santa Barbara.</t>
   </si>
   <si>
-    <t>Santa Fé de Antioquia</t>
-  </si>
-  <si>
-    <t>Santa Rosa de Osos ..</t>
-  </si>
-  <si>
     <t>I.229.509</t>
   </si>
   <si>
@@ -210,9 +201,6 @@
     <t>Sabanalarga</t>
   </si>
   <si>
-    <t>Cartagena ..</t>
-  </si>
-  <si>
     <t>Calamar</t>
   </si>
   <si>
@@ -231,9 +219,6 @@
     <t>Maria La Baja</t>
   </si>
   <si>
-    <t>Mompbs</t>
-  </si>
-  <si>
     <t>Ovejas</t>
   </si>
   <si>
@@ -261,9 +246,6 @@
     <t>Chiquinquirá</t>
   </si>
   <si>
-    <t>Dultama</t>
-  </si>
-  <si>
     <t>El Cocuy</t>
   </si>
   <si>
@@ -291,9 +273,6 @@
     <t>Moniquirá</t>
   </si>
   <si>
-    <t>Orocul</t>
-  </si>
-  <si>
     <t>Pauna</t>
   </si>
   <si>
@@ -303,9 +282,6 @@
     <t>Puebloviejo</t>
   </si>
   <si>
-    <t>Puerto Boyack</t>
-  </si>
-  <si>
     <t>Ramiriqui..</t>
   </si>
   <si>
@@ -324,9 +300,6 @@
     <t>Santa Rosa de Viterbo</t>
   </si>
   <si>
-    <t>Soath</t>
-  </si>
-  <si>
     <t>Socha</t>
   </si>
   <si>
@@ -357,9 +330,6 @@
     <t>390, 990</t>
   </si>
   <si>
-    <t>Ansorme</t>
-  </si>
-  <si>
     <t>Apia</t>
   </si>
   <si>
@@ -369,9 +339,6 @@
     <t>Belalcazar</t>
   </si>
   <si>
-    <t>Bolen de Umbria</t>
-  </si>
-  <si>
     <t>Calarcá</t>
   </si>
   <si>
@@ -393,9 +360,6 @@
     <t>La Dorada</t>
   </si>
   <si>
-    <t>Manzanarea</t>
-  </si>
-  <si>
     <t>Marsella</t>
   </si>
   <si>
@@ -510,18 +474,9 @@
     <t>Ciénaga de Oro</t>
   </si>
   <si>
-    <t>China</t>
-  </si>
-  <si>
     <t>Lorica..</t>
   </si>
   <si>
-    <t>Montellbano</t>
-  </si>
-  <si>
-    <t>Sahagun. ..</t>
-  </si>
-  <si>
     <t>4,970.108</t>
   </si>
   <si>
@@ -714,9 +669,6 @@
     <t>El Carmen</t>
   </si>
   <si>
-    <t>Nelva</t>
-  </si>
-  <si>
     <t>Huila</t>
   </si>
   <si>
@@ -753,15 +705,9 @@
     <t>1. 984.926</t>
   </si>
   <si>
-    <t>Palermo ..</t>
-  </si>
-  <si>
     <t>Pitalito</t>
   </si>
   <si>
-    <t>San Agustio.</t>
-  </si>
-  <si>
     <t>Tello</t>
   </si>
   <si>
@@ -870,9 +816,6 @@
     <t>447. 747</t>
   </si>
   <si>
-    <t>Tâquerres</t>
-  </si>
-  <si>
     <t>1,893,854</t>
   </si>
   <si>
@@ -885,9 +828,6 @@
     <t>Norte de Santander</t>
   </si>
   <si>
-    <t>Arbolodas</t>
-  </si>
-  <si>
     <t>Cáchira</t>
   </si>
   <si>
@@ -930,9 +870,6 @@
     <t>1,025,064</t>
   </si>
   <si>
-    <t>Barrancabormeja</t>
-  </si>
-  <si>
     <t>Cimitarra.</t>
   </si>
   <si>
@@ -975,12 +912,6 @@
     <t>Puerto Wilches</t>
   </si>
   <si>
-    <t>San Audréa</t>
-  </si>
-  <si>
-    <t>I.122.841</t>
-  </si>
-  <si>
     <t>1,851.337</t>
   </si>
   <si>
@@ -1008,9 +939,6 @@
     <t>Suratá</t>
   </si>
   <si>
-    <t>Volez</t>
-  </si>
-  <si>
     <t>Zapatoca</t>
   </si>
   <si>
@@ -1228,6 +1156,84 @@
   </si>
   <si>
     <t>Vichada</t>
+  </si>
+  <si>
+    <t>Neiva</t>
+  </si>
+  <si>
+    <t>Caqueta</t>
+  </si>
+  <si>
+    <t>Florencia</t>
+  </si>
+  <si>
+    <t>San Vicente del Caguán</t>
+  </si>
+  <si>
+    <t>2,536.471</t>
+  </si>
+  <si>
+    <t>Chigorodo</t>
+  </si>
+  <si>
+    <t>SantaFé de Antioquia</t>
+  </si>
+  <si>
+    <t>Santa Rosa de Osos</t>
+  </si>
+  <si>
+    <t>Cartagena</t>
+  </si>
+  <si>
+    <t>Mompos</t>
+  </si>
+  <si>
+    <t>Duitama</t>
+  </si>
+  <si>
+    <t>Orocue</t>
+  </si>
+  <si>
+    <t>Puerto Boyaca</t>
+  </si>
+  <si>
+    <t>Soata</t>
+  </si>
+  <si>
+    <t>Anserma</t>
+  </si>
+  <si>
+    <t>Belen de Umbria</t>
+  </si>
+  <si>
+    <t>Manzanares</t>
+  </si>
+  <si>
+    <t>Chinu</t>
+  </si>
+  <si>
+    <t>Montelibano</t>
+  </si>
+  <si>
+    <t>Sahagun</t>
+  </si>
+  <si>
+    <t>Palermo</t>
+  </si>
+  <si>
+    <t>San Agustin</t>
+  </si>
+  <si>
+    <t>Tuquerres</t>
+  </si>
+  <si>
+    <t>Arboledas</t>
+  </si>
+  <si>
+    <t>Barrancabermeja</t>
+  </si>
+  <si>
+    <t>Velez</t>
   </si>
 </sst>
 </file>
@@ -1276,13 +1282,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1597,15 +1604,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B714299-56CA-6B49-9492-4AD2AA26DC3C}">
-  <dimension ref="A1:L996"/>
+  <dimension ref="A1:L998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="A263" sqref="A263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="12" width="10.83203125" style="1"/>
+    <col min="1" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -1994,7 +2005,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>22</v>
+        <v>379</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>11</v>
@@ -2026,7 +2037,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>11</v>
@@ -2058,7 +2069,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>11</v>
@@ -2090,7 +2101,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>11</v>
@@ -2122,7 +2133,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>11</v>
@@ -2154,7 +2165,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>11</v>
@@ -2186,7 +2197,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>11</v>
@@ -2213,12 +2224,12 @@
         <v>424</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>11</v>
@@ -2250,7 +2261,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>11</v>
@@ -2282,7 +2293,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>11</v>
@@ -2314,7 +2325,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>11</v>
@@ -2346,7 +2357,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>11</v>
@@ -2378,7 +2389,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>11</v>
@@ -2410,7 +2421,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>11</v>
@@ -2437,12 +2448,12 @@
         <v>912</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>11</v>
@@ -2474,7 +2485,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>11</v>
@@ -2506,7 +2517,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>11</v>
@@ -2538,7 +2549,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>11</v>
@@ -2570,7 +2581,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>42</v>
+        <v>380</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>11</v>
@@ -2602,7 +2613,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>43</v>
+        <v>381</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>11</v>
@@ -2617,7 +2628,7 @@
         <v>406</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G32" s="3">
         <v>13</v>
@@ -2634,7 +2645,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>11</v>
@@ -2661,12 +2672,12 @@
         <v>1088</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>11</v>
@@ -2698,7 +2709,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>11</v>
@@ -2730,7 +2741,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>11</v>
@@ -2762,7 +2773,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>11</v>
@@ -2794,7 +2805,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>11</v>
@@ -2826,7 +2837,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>11</v>
@@ -2858,7 +2869,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>11</v>
@@ -2890,7 +2901,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>11</v>
@@ -2922,10 +2933,10 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C42" s="4">
         <v>1623</v>
@@ -2954,10 +2965,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C43" s="4">
         <v>1115</v>
@@ -2986,13 +2997,13 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>58</v>
+        <v>382</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C44" s="3">
-        <v>1.321</v>
+        <v>1321</v>
       </c>
       <c r="D44" s="4">
         <v>3666024</v>
@@ -3018,7 +3029,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>17</v>
@@ -3050,7 +3061,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>17</v>
@@ -3082,7 +3093,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>17</v>
@@ -3114,7 +3125,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>17</v>
@@ -3146,7 +3157,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>17</v>
@@ -3178,7 +3189,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>17</v>
@@ -3210,7 +3221,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>65</v>
+        <v>383</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>17</v>
@@ -3242,7 +3253,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>17</v>
@@ -3274,7 +3285,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>17</v>
@@ -3306,7 +3317,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>17</v>
@@ -3338,7 +3349,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>17</v>
@@ -3370,7 +3381,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>17</v>
@@ -3402,7 +3413,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>17</v>
@@ -3434,10 +3445,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C58" s="4">
         <v>1733</v>
@@ -3466,13 +3477,13 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C59" s="3">
-        <v>1.518</v>
+        <v>1518</v>
       </c>
       <c r="D59" s="4">
         <v>2643412</v>
@@ -3498,10 +3509,10 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>75</v>
+        <v>384</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C60" s="3">
         <v>977</v>
@@ -3530,10 +3541,10 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C61" s="3">
         <v>546</v>
@@ -3562,10 +3573,10 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C62" s="3">
         <v>798</v>
@@ -3594,10 +3605,10 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C63" s="4">
         <v>1020</v>
@@ -3626,10 +3637,10 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C64" s="4">
         <v>1255</v>
@@ -3658,10 +3669,10 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C65" s="4">
         <v>1036</v>
@@ -3690,10 +3701,10 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C66" s="4">
         <v>1115</v>
@@ -3722,10 +3733,10 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C67" s="3">
         <v>974</v>
@@ -3754,10 +3765,10 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C68" s="4">
         <v>1431</v>
@@ -3786,10 +3797,10 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C69" s="4">
         <v>1091</v>
@@ -3818,10 +3829,10 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>85</v>
+        <v>385</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C70" s="3">
         <v>56</v>
@@ -3850,13 +3861,13 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C71" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="D71" s="4">
         <v>1104928</v>
@@ -3882,10 +3893,10 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C72" s="4">
         <v>1230</v>
@@ -3914,10 +3925,10 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C73" s="4">
         <v>1223</v>
@@ -3946,10 +3957,10 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>89</v>
+        <v>386</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C74" s="3">
         <v>183</v>
@@ -3978,10 +3989,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C75" s="4">
         <v>1492</v>
@@ -4005,15 +4016,15 @@
         <v>1796</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C76" s="4">
         <v>1433</v>
@@ -4042,10 +4053,10 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C77" s="3">
         <v>613</v>
@@ -4074,10 +4085,10 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C78" s="3">
         <v>70</v>
@@ -4106,10 +4117,10 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C79" s="3">
         <v>798</v>
@@ -4138,10 +4149,10 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>96</v>
+        <v>387</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C80" s="4">
         <v>1183</v>
@@ -4170,10 +4181,10 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C81" s="3">
         <v>522</v>
@@ -4202,10 +4213,10 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C82" s="4">
         <v>2864</v>
@@ -4234,10 +4245,10 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C83" s="3">
         <v>281</v>
@@ -4266,10 +4277,10 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C84" s="3">
         <v>381</v>
@@ -4298,10 +4309,10 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C85" s="4">
         <v>1026</v>
@@ -4330,10 +4341,10 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C86" s="3">
         <v>186</v>
@@ -4362,10 +4373,10 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C87" s="3">
         <v>518</v>
@@ -4394,10 +4405,10 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C88" s="3">
         <v>511</v>
@@ -4415,7 +4426,7 @@
         <v>68</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="I88" s="3">
         <v>734</v>
@@ -4426,10 +4437,10 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>107</v>
+        <v>388</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C89" s="3">
         <v>1094</v>
@@ -4458,10 +4469,10 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C90" s="3">
         <v>382</v>
@@ -4490,10 +4501,10 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C91" s="3">
         <v>614</v>
@@ -4525,7 +4536,7 @@
         <v>15</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C92" s="3">
         <v>980</v>
@@ -4554,10 +4565,10 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C93" s="3">
         <v>403</v>
@@ -4586,10 +4597,10 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>111</v>
+        <v>389</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C94" s="3">
         <v>300</v>
@@ -4618,10 +4629,10 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C95" s="3">
         <v>477</v>
@@ -4630,7 +4641,7 @@
         <v>1842600</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F95" s="4">
         <v>1039254</v>
@@ -4650,10 +4661,10 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C96" s="3">
         <v>319</v>
@@ -4682,10 +4693,10 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C97" s="3">
         <v>381</v>
@@ -4714,10 +4725,10 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C98" s="3">
         <v>178</v>
@@ -4741,15 +4752,15 @@
         <v>247</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C99" s="3">
         <v>264</v>
@@ -4778,10 +4789,10 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>119</v>
+        <v>390</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C100" s="3">
         <v>902</v>
@@ -4810,10 +4821,10 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C101" s="3">
         <v>254</v>
@@ -4842,10 +4853,10 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C102" s="3">
         <v>171</v>
@@ -4874,10 +4885,10 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C103" s="3">
         <v>548</v>
@@ -4906,10 +4917,10 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C104" s="3">
         <v>88</v>
@@ -4938,10 +4949,10 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C105" s="3">
         <v>813</v>
@@ -4970,10 +4981,10 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C106" s="3">
         <v>661</v>
@@ -5002,10 +5013,10 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C107" s="3">
         <v>131</v>
@@ -5014,7 +5025,7 @@
         <v>920825</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F107" s="4">
         <v>533280</v>
@@ -5029,15 +5040,15 @@
         <v>196</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C108" s="3">
         <v>540</v>
@@ -5066,10 +5077,10 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C109" s="3">
         <v>281</v>
@@ -5098,13 +5109,13 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C110" s="3">
-        <v>1.03</v>
+        <v>1030</v>
       </c>
       <c r="D110" s="4">
         <v>734686</v>
@@ -5122,7 +5133,7 @@
         <v>657230</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="J110" s="5">
         <v>1844.981</v>
@@ -5130,10 +5141,10 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C111" s="3">
         <v>551</v>
@@ -5157,15 +5168,15 @@
         <v>901</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C112" s="3">
         <v>288</v>
@@ -5194,10 +5205,10 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C113" s="3">
         <v>509</v>
@@ -5226,10 +5237,10 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C114" s="3">
         <v>253</v>
@@ -5258,10 +5269,10 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C115" s="3">
         <v>121</v>
@@ -5290,10 +5301,10 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C116" s="4">
         <v>1008</v>
@@ -5322,10 +5333,10 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C117" s="3">
         <v>643</v>
@@ -5354,10 +5365,10 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C118" s="3">
         <v>512</v>
@@ -5386,10 +5397,10 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C119" s="3">
         <v>288</v>
@@ -5413,15 +5424,15 @@
         <v>495</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C120" s="3">
         <v>271</v>
@@ -5445,15 +5456,15 @@
         <v>502</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C121" s="3">
         <v>623</v>
@@ -5482,10 +5493,10 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C122" s="3">
         <v>136</v>
@@ -5514,10 +5525,10 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C123" s="3">
         <v>175</v>
@@ -5546,10 +5557,10 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C124" s="3">
         <v>939</v>
@@ -5578,10 +5589,10 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C125" s="3">
         <v>253</v>
@@ -5610,10 +5621,10 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C126" s="3">
         <v>670</v>
@@ -5642,10 +5653,10 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C127" s="3">
         <v>914</v>
@@ -5674,10 +5685,10 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C128" s="3">
         <v>603</v>
@@ -5706,10 +5717,10 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C129" s="3">
         <v>185</v>
@@ -5738,10 +5749,10 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C130" s="3">
         <v>731</v>
@@ -5770,10 +5781,10 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C131" s="3">
         <v>310</v>
@@ -5802,10 +5813,10 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>158</v>
+        <v>391</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C132" s="3">
         <v>383</v>
@@ -5834,10 +5845,10 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C133" s="3">
         <v>976</v>
@@ -5866,10 +5877,10 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>160</v>
+        <v>392</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C134" s="3">
         <v>168</v>
@@ -5898,10 +5909,10 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>161</v>
+        <v>393</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C135" s="3">
         <v>560</v>
@@ -5925,15 +5936,15 @@
         <v>1140</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C136" s="3">
         <v>328</v>
@@ -5957,15 +5968,15 @@
         <v>533</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C137" s="3">
         <v>528</v>
@@ -5994,10 +6005,10 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C138" s="3">
         <v>274</v>
@@ -6021,15 +6032,15 @@
         <v>638</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C139" s="3">
         <v>725</v>
@@ -6058,10 +6069,10 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C140" s="4">
         <v>1930</v>
@@ -6090,10 +6101,10 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C141" s="3">
         <v>695</v>
@@ -6122,10 +6133,10 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C142" s="3">
         <v>463</v>
@@ -6154,10 +6165,10 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C143" s="3">
         <v>359</v>
@@ -6181,15 +6192,15 @@
         <v>1410</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C144" s="3">
         <v>295</v>
@@ -6218,10 +6229,10 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C145" s="3">
         <v>1374</v>
@@ -6245,15 +6256,15 @@
         <v>1566</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C146" s="3">
         <v>287</v>
@@ -6282,10 +6293,10 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C147" s="4">
         <v>1317</v>
@@ -6314,10 +6325,10 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C148" s="3">
         <v>475</v>
@@ -6346,10 +6357,10 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C149" s="3">
         <v>784</v>
@@ -6378,10 +6389,10 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C150" s="3">
         <v>470</v>
@@ -6410,10 +6421,10 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C151" s="3">
         <v>748</v>
@@ -6442,10 +6453,10 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C152" s="3">
         <v>649</v>
@@ -6474,10 +6485,10 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C153" s="3">
         <v>863</v>
@@ -6501,15 +6512,15 @@
         <v>1613</v>
       </c>
       <c r="J153" s="3" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C154" s="3">
         <v>294</v>
@@ -6538,10 +6549,10 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C155" s="3">
         <v>340</v>
@@ -6565,15 +6576,15 @@
         <v>517</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C156" s="3">
         <v>300</v>
@@ -6602,10 +6613,10 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C157" s="3">
         <v>205</v>
@@ -6634,10 +6645,10 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C158" s="3">
         <v>411</v>
@@ -6666,10 +6677,10 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C159" s="3">
         <v>840</v>
@@ -6698,10 +6709,10 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C160" s="3">
         <v>598</v>
@@ -6730,10 +6741,10 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C161" s="3">
         <v>364</v>
@@ -6762,10 +6773,10 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C162" s="3">
         <v>337</v>
@@ -6794,10 +6805,10 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C163" s="3">
         <v>269</v>
@@ -6826,10 +6837,10 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C164" s="3">
         <v>185</v>
@@ -6858,10 +6869,10 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C165" s="3">
         <v>732</v>
@@ -6890,10 +6901,10 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C166" s="3">
         <v>635</v>
@@ -6922,10 +6933,10 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C167" s="3">
         <v>320</v>
@@ -6934,7 +6945,7 @@
         <v>472360</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="F167" s="4">
         <v>118525</v>
@@ -6954,10 +6965,10 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C168" s="3">
         <v>435</v>
@@ -6981,15 +6992,15 @@
         <v>657</v>
       </c>
       <c r="J168" s="3" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C169" s="3">
         <v>726</v>
@@ -7013,15 +7024,15 @@
         <v>927</v>
       </c>
       <c r="J169" s="3" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C170" s="3">
         <v>367</v>
@@ -7050,10 +7061,10 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C171" s="3">
         <v>387</v>
@@ -7082,10 +7093,10 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C172" s="3">
         <v>85</v>
@@ -7114,10 +7125,10 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C173" s="3">
         <v>325</v>
@@ -7146,10 +7157,10 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C174" s="3">
         <v>315</v>
@@ -7178,10 +7189,10 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C175" s="3">
         <v>835</v>
@@ -7193,7 +7204,7 @@
         <v>200</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="G175" s="3">
         <v>121</v>
@@ -7210,10 +7221,10 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C176" s="3">
         <v>344</v>
@@ -7242,10 +7253,10 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C177" s="3">
         <v>173</v>
@@ -7274,10 +7285,10 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C178" s="3">
         <v>640</v>
@@ -7301,15 +7312,15 @@
         <v>743</v>
       </c>
       <c r="J178" s="3" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C179" s="3">
         <v>360</v>
@@ -7333,15 +7344,15 @@
         <v>557</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C180" s="3">
         <v>603</v>
@@ -7365,15 +7376,15 @@
         <v>830</v>
       </c>
       <c r="J180" s="3" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C181" s="3">
         <v>395</v>
@@ -7402,10 +7413,10 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C182" s="3">
         <v>324</v>
@@ -7434,10 +7445,10 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C183" s="3">
         <v>166</v>
@@ -7466,18 +7477,18 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>226</v>
+        <v>374</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C184" s="3">
-        <v>1.2470000000000001</v>
+        <v>1247</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E184" s="4">
+        <v>212</v>
+      </c>
+      <c r="E184" s="6">
         <v>1502</v>
       </c>
       <c r="F184" s="4">
@@ -7490,7 +7501,7 @@
         <v>927731</v>
       </c>
       <c r="I184" s="3" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="J184" s="5">
         <v>14669.715</v>
@@ -7498,10 +7509,10 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C185" s="3">
         <v>466</v>
@@ -7530,10 +7541,10 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C186" s="3">
         <v>301</v>
@@ -7562,10 +7573,10 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C187" s="3">
         <v>229</v>
@@ -7594,10 +7605,10 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C188" s="3">
         <v>269</v>
@@ -7626,10 +7637,10 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C189" s="3">
         <v>617</v>
@@ -7658,10 +7669,10 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C190" s="3">
         <v>470</v>
@@ -7690,10 +7701,10 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C191" s="3">
         <v>240</v>
@@ -7722,16 +7733,16 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C192" s="3">
         <v>418</v>
       </c>
       <c r="D192" s="3">
-        <v>752.1</v>
+        <v>752100</v>
       </c>
       <c r="E192" s="3">
         <v>271</v>
@@ -7749,15 +7760,15 @@
         <v>729</v>
       </c>
       <c r="J192" s="3" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>239</v>
+        <v>394</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C193" s="3">
         <v>338</v>
@@ -7786,10 +7797,10 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C194" s="3">
         <v>667</v>
@@ -7818,10 +7829,10 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>241</v>
+        <v>395</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C195" s="3">
         <v>321</v>
@@ -7850,10 +7861,10 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C196" s="3">
         <v>266</v>
@@ -7882,16 +7893,16 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C197" s="3">
         <v>258</v>
       </c>
       <c r="D197" s="3">
-        <v>448.59</v>
+        <v>448590</v>
       </c>
       <c r="E197" s="3">
         <v>209</v>
@@ -7914,10 +7925,10 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C198" s="3">
         <v>652</v>
@@ -7946,10 +7957,10 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C199" s="3">
         <v>341</v>
@@ -7978,10 +7989,10 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C200" s="3">
         <v>564</v>
@@ -8010,10 +8021,10 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C201" s="3">
         <v>580</v>
@@ -8037,15 +8048,15 @@
         <v>1009</v>
       </c>
       <c r="J201" s="3" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C202" s="3">
         <v>279</v>
@@ -8074,10 +8085,10 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C203" s="3">
         <v>227</v>
@@ -8106,10 +8117,10 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C204" s="3">
         <v>133</v>
@@ -8133,15 +8144,15 @@
         <v>301</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C205" s="3">
         <v>167</v>
@@ -8170,10 +8181,10 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C206" s="3">
         <v>434</v>
@@ -8202,10 +8213,10 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C207" s="3">
         <v>292</v>
@@ -8216,8 +8227,8 @@
       <c r="E207" s="3">
         <v>438</v>
       </c>
-      <c r="F207" s="5">
-        <v>1408.54</v>
+      <c r="F207" s="6">
+        <v>1408540</v>
       </c>
       <c r="G207" s="3">
         <v>20</v>
@@ -8234,10 +8245,10 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C208" s="3">
         <v>318</v>
@@ -8266,10 +8277,10 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C209" s="3">
         <v>423</v>
@@ -8298,10 +8309,10 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C210" s="3">
         <v>869</v>
@@ -8330,10 +8341,10 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="C211" s="3">
         <v>897</v>
@@ -8362,10 +8373,10 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="C212" s="3">
         <v>274</v>
@@ -8394,10 +8405,10 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="C213" s="3">
         <v>254</v>
@@ -8426,10 +8437,10 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="C214" s="3">
         <v>330</v>
@@ -8458,10 +8469,10 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="C215" s="3">
         <v>319</v>
@@ -8490,10 +8501,10 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="C216" s="3">
         <v>604</v>
@@ -8522,10 +8533,10 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="C217" s="3">
         <v>239</v>
@@ -8554,10 +8565,10 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="C218" s="4">
         <v>1847</v>
@@ -8586,10 +8597,10 @@
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="C219" s="3">
         <v>630</v>
@@ -8618,10 +8629,10 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="C220" s="3">
         <v>312</v>
@@ -8650,10 +8661,10 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="C221" s="4">
         <v>1009</v>
@@ -8682,10 +8693,10 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="C222" s="3">
         <v>895</v>
@@ -8714,10 +8725,10 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="C223" s="4">
         <v>1014</v>
@@ -8746,10 +8757,10 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="C224" s="3">
         <v>952</v>
@@ -8778,10 +8789,10 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="C225" s="3">
         <v>802</v>
@@ -8802,7 +8813,7 @@
         <v>117054</v>
       </c>
       <c r="I225" s="3" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="J225" s="4">
         <v>1426700</v>
@@ -8810,10 +8821,10 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="C226" s="4">
         <v>1153</v>
@@ -8825,7 +8836,7 @@
         <v>239</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="G226" s="3">
         <v>2</v>
@@ -8842,22 +8853,22 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
-        <v>278</v>
+        <v>396</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="C227" s="4">
         <v>1121</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="E227" s="3">
         <v>438</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="G227" s="3">
         <v>62</v>
@@ -8874,10 +8885,10 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="C228" s="3">
         <v>593</v>
@@ -8906,10 +8917,10 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
-        <v>283</v>
+        <v>397</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="C229" s="3">
         <v>326</v>
@@ -8938,10 +8949,10 @@
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="C230" s="3">
         <v>738</v>
@@ -8970,10 +8981,10 @@
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="C231" s="3">
         <v>291</v>
@@ -9002,10 +9013,10 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="C232" s="3">
         <v>253</v>
@@ -9034,10 +9045,10 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="C233" s="3">
         <v>368</v>
@@ -9066,10 +9077,10 @@
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="C234" s="3">
         <v>468</v>
@@ -9098,10 +9109,10 @@
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="C235" s="3">
         <v>760</v>
@@ -9130,10 +9141,10 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="C236" s="4">
         <v>1089</v>
@@ -9162,10 +9173,10 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="C237" s="3">
         <v>328</v>
@@ -9194,10 +9205,10 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="C238" s="3">
         <v>606</v>
@@ -9226,10 +9237,10 @@
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="C239" s="3">
         <v>854</v>
@@ -9258,13 +9269,13 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C240" s="3">
-        <v>3.2530000000000001</v>
+        <v>3253</v>
       </c>
       <c r="D240" s="4">
         <v>8154852</v>
@@ -9282,7 +9293,7 @@
         <v>1238228</v>
       </c>
       <c r="I240" s="3">
-        <v>4.7640000000000002</v>
+        <v>4764</v>
       </c>
       <c r="J240" s="4">
         <v>18745430</v>
@@ -9290,10 +9301,10 @@
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C241" s="3">
         <v>503</v>
@@ -9311,21 +9322,21 @@
         <v>35</v>
       </c>
       <c r="H241" s="3">
-        <v>183.09</v>
+        <v>183090</v>
       </c>
       <c r="I241" s="3" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="J241" s="3" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
-        <v>298</v>
+        <v>398</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C242" s="3">
         <v>379</v>
@@ -9354,10 +9365,10 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C243" s="3">
         <v>257</v>
@@ -9381,15 +9392,15 @@
         <v>648</v>
       </c>
       <c r="J243" s="3" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C244" s="3">
         <v>964</v>
@@ -9413,15 +9424,15 @@
         <v>1234</v>
       </c>
       <c r="J244" s="3" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C245" s="3">
         <v>912</v>
@@ -9445,21 +9456,21 @@
         <v>1175</v>
       </c>
       <c r="J245" s="4">
-        <v>2333917</v>
+        <v>2333912</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C246" s="3">
         <v>466</v>
       </c>
       <c r="D246" s="3">
-        <v>684.38</v>
+        <v>684380</v>
       </c>
       <c r="E246" s="3">
         <v>213</v>
@@ -9476,16 +9487,16 @@
       <c r="I246" s="3">
         <v>681</v>
       </c>
-      <c r="J246" s="5">
-        <v>1218.8589999999999</v>
+      <c r="J246" s="6">
+        <v>1218859</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C247" s="3">
         <v>624</v>
@@ -9514,10 +9525,10 @@
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C248" s="4">
         <v>1923</v>
@@ -9546,10 +9557,10 @@
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C249" s="3">
         <v>489</v>
@@ -9578,10 +9589,10 @@
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C250" s="3">
         <v>267</v>
@@ -9610,10 +9621,10 @@
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C251" s="3">
         <v>466</v>
@@ -9642,10 +9653,10 @@
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C252" s="3">
         <v>580</v>
@@ -9674,10 +9685,10 @@
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C253" s="3">
         <v>706</v>
@@ -9706,10 +9717,10 @@
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C254" s="3">
         <v>612</v>
@@ -9738,10 +9749,10 @@
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C255" s="3">
         <v>581</v>
@@ -9770,16 +9781,16 @@
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
-        <v>313</v>
+        <v>148</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C256" s="4">
         <v>1069</v>
       </c>
-      <c r="D256" s="3" t="s">
-        <v>314</v>
+      <c r="D256" s="4">
+        <v>1122841</v>
       </c>
       <c r="E256" s="3">
         <v>545</v>
@@ -9794,24 +9805,24 @@
         <v>102757</v>
       </c>
       <c r="I256" s="3">
-        <v>1.63</v>
+        <v>1630</v>
       </c>
       <c r="J256" s="3" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C257" s="4">
         <v>1415</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="E257" s="3">
         <v>237</v>
@@ -9834,10 +9845,10 @@
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C258" s="3">
         <v>401</v>
@@ -9866,16 +9877,16 @@
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C259" s="3">
         <v>591</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="E259" s="3">
         <v>328</v>
@@ -9898,10 +9909,10 @@
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C260" s="3">
         <v>565</v>
@@ -9930,10 +9941,10 @@
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C261" s="3">
         <v>617</v>
@@ -9957,15 +9968,15 @@
         <v>1328</v>
       </c>
       <c r="J261" s="3" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C262" s="3">
         <v>180</v>
@@ -9994,10 +10005,10 @@
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
-        <v>324</v>
+        <v>399</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C263" s="3">
         <v>320</v>
@@ -10026,10 +10037,10 @@
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C264" s="3">
         <v>300</v>
@@ -10041,7 +10052,7 @@
         <v>101</v>
       </c>
       <c r="F264" s="3">
-        <v>434.13</v>
+        <v>434130</v>
       </c>
       <c r="G264" s="3">
         <v>42</v>
@@ -10058,10 +10069,10 @@
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C265" s="3">
         <v>888</v>
@@ -10090,10 +10101,10 @@
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C266" s="3">
         <v>186</v>
@@ -10122,10 +10133,10 @@
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C267" s="3">
         <v>256</v>
@@ -10154,10 +10165,10 @@
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C268" s="3">
         <v>278</v>
@@ -10186,10 +10197,10 @@
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C269" s="3">
         <v>287</v>
@@ -10218,10 +10229,10 @@
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C270" s="3">
         <v>319</v>
@@ -10250,10 +10261,10 @@
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C271" s="3">
         <v>275</v>
@@ -10265,7 +10276,7 @@
         <v>105</v>
       </c>
       <c r="F271" s="3">
-        <v>149.47999999999999</v>
+        <v>149480</v>
       </c>
       <c r="G271" s="3">
         <v>9</v>
@@ -10282,10 +10293,10 @@
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C272" s="3">
         <v>274</v>
@@ -10314,10 +10325,10 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C273" s="4">
         <v>2061</v>
@@ -10346,10 +10357,10 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C274" s="3">
         <v>207</v>
@@ -10378,16 +10389,16 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C275" s="3">
         <v>939</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="E275" s="3">
         <v>254</v>
@@ -10410,16 +10421,16 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C276" s="4">
         <v>1602</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="E276" s="3">
         <v>303</v>
@@ -10442,10 +10453,10 @@
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C277" s="3">
         <v>177</v>
@@ -10474,10 +10485,10 @@
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C278" s="3">
         <v>392</v>
@@ -10506,10 +10517,10 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C279" s="3">
         <v>269</v>
@@ -10538,10 +10549,10 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C280" s="3">
         <v>127</v>
@@ -10570,10 +10581,10 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C281" s="3">
         <v>665</v>
@@ -10602,10 +10613,10 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C282" s="4">
         <v>1133</v>
@@ -10634,10 +10645,10 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C283" s="3">
         <v>95</v>
@@ -10666,10 +10677,10 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C284" s="3">
         <v>190</v>
@@ -10698,10 +10709,10 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C285" s="3">
         <v>370</v>
@@ -10730,10 +10741,10 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C286" s="3">
         <v>582</v>
@@ -10762,10 +10773,10 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C287" s="3">
         <v>738</v>
@@ -10794,10 +10805,10 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C288" s="3">
         <v>131</v>
@@ -10826,10 +10837,10 @@
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C289" s="3">
         <v>819</v>
@@ -10858,10 +10869,10 @@
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C290" s="3">
         <v>337</v>
@@ -10890,10 +10901,10 @@
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C291" s="3">
         <v>666</v>
@@ -10922,10 +10933,10 @@
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C292" s="3">
         <v>153</v>
@@ -10954,10 +10965,10 @@
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C293" s="3">
         <v>203</v>
@@ -10981,15 +10992,15 @@
         <v>368</v>
       </c>
       <c r="J293" s="5">
-        <v>1456.29</v>
+        <v>1456290</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C294" s="3">
         <v>260</v>
@@ -11018,10 +11029,10 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C295" s="3">
         <v>477</v>
@@ -11050,10 +11061,10 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="C296" s="3">
         <v>839</v>
@@ -11082,10 +11093,10 @@
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="C297" s="3">
         <v>225</v>
@@ -11114,10 +11125,10 @@
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="C298" s="3">
         <v>261</v>
@@ -11146,10 +11157,10 @@
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="C299" s="3">
         <v>596</v>
@@ -11178,10 +11189,10 @@
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="C300" s="3">
         <v>30</v>
@@ -11210,10 +11221,10 @@
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="C301" s="3">
         <v>272</v>
@@ -11225,7 +11236,7 @@
         <v>109</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="G301" s="3">
         <v>16</v>
@@ -11242,10 +11253,10 @@
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="C302" s="3">
         <v>668</v>
@@ -11274,10 +11285,10 @@
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="C303" s="3">
         <v>320</v>
@@ -11306,10 +11317,10 @@
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="C304" s="3">
         <v>313</v>
@@ -11338,10 +11349,10 @@
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="C305" s="3">
         <v>131</v>
@@ -11370,10 +11381,10 @@
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="C306" s="3">
         <v>402</v>
@@ -11402,10 +11413,10 @@
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="C307" s="3">
         <v>665</v>
@@ -11434,10 +11445,10 @@
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="C308" s="3">
         <v>324</v>
@@ -11466,10 +11477,10 @@
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="C309" s="3">
         <v>395</v>
@@ -11498,10 +11509,10 @@
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="C310" s="3">
         <v>505</v>
@@ -11530,10 +11541,10 @@
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="C311" s="3">
         <v>535</v>
@@ -11562,10 +11573,10 @@
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="C312" s="3">
         <v>173</v>
@@ -11594,10 +11605,10 @@
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="C313" s="3">
         <v>572</v>
@@ -11626,10 +11637,10 @@
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="C314" s="3">
         <v>141</v>
@@ -11658,10 +11669,10 @@
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="C315" s="3">
         <v>76</v>
@@ -11673,27 +11684,27 @@
         <v>693</v>
       </c>
       <c r="F315" s="4">
-        <v>3801493</v>
+        <v>1164463</v>
       </c>
       <c r="G315" s="3">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="H315" s="4">
-        <v>194420</v>
+        <v>0</v>
       </c>
       <c r="I315" s="4">
-        <v>1810</v>
+        <v>769</v>
       </c>
       <c r="J315" s="4">
-        <v>5505143</v>
+        <v>1346407</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="C316" s="3">
         <v>200</v>
@@ -11705,396 +11716,436 @@
         <v>736</v>
       </c>
       <c r="F316" s="4">
-        <v>814073</v>
+        <v>1760577</v>
       </c>
       <c r="G316" s="3">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="H316" s="4">
-        <v>185988</v>
+        <v>13900</v>
       </c>
       <c r="I316" s="3">
-        <v>510</v>
-      </c>
-      <c r="J316" s="4">
-        <v>1541151</v>
+        <v>940</v>
+      </c>
+      <c r="J316" s="4" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C317" s="3">
-        <v>311</v>
+        <v>914</v>
       </c>
       <c r="D317" s="4">
-        <v>621693</v>
+        <v>1509230</v>
       </c>
       <c r="E317" s="3">
-        <v>112</v>
+        <v>851</v>
       </c>
       <c r="F317" s="4">
-        <v>631858</v>
+        <v>3801493</v>
       </c>
       <c r="G317" s="3">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="H317" s="4">
-        <v>358741</v>
-      </c>
-      <c r="I317" s="3">
-        <v>498</v>
+        <v>194420</v>
+      </c>
+      <c r="I317" s="4">
+        <v>1810</v>
       </c>
       <c r="J317" s="4">
-        <v>1612292</v>
+        <v>5505143</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C318" s="3">
-        <v>264</v>
+        <v>207</v>
       </c>
       <c r="D318" s="4">
-        <v>498858</v>
+        <v>541090</v>
       </c>
       <c r="E318" s="3">
-        <v>126</v>
+        <v>255</v>
       </c>
       <c r="F318" s="4">
-        <v>417235</v>
+        <v>814073</v>
       </c>
       <c r="G318" s="3">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="H318" s="4">
-        <v>80648</v>
+        <v>185988</v>
       </c>
       <c r="I318" s="3">
-        <v>410</v>
+        <v>510</v>
       </c>
       <c r="J318" s="4">
-        <v>996741</v>
+        <v>1541151</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="C319" s="3">
-        <v>259</v>
+        <v>311</v>
       </c>
       <c r="D319" s="4">
-        <v>776530</v>
+        <v>621693</v>
       </c>
       <c r="E319" s="3">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="F319" s="4">
-        <v>721406</v>
+        <v>631858</v>
       </c>
       <c r="G319" s="3">
-        <v>18</v>
-      </c>
-      <c r="H319" s="3">
-        <v>68.75</v>
+        <v>75</v>
+      </c>
+      <c r="H319" s="4">
+        <v>358741</v>
       </c>
       <c r="I319" s="3">
-        <v>419</v>
+        <v>498</v>
       </c>
       <c r="J319" s="4">
-        <v>1566686</v>
+        <v>1612292</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="C320" s="3">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D320" s="4">
-        <v>1012727</v>
+        <v>498858</v>
       </c>
       <c r="E320" s="3">
-        <v>286</v>
+        <v>126</v>
       </c>
       <c r="F320" s="4">
-        <v>1867628</v>
+        <v>417235</v>
       </c>
       <c r="G320" s="3">
-        <v>4</v>
-      </c>
-      <c r="H320" s="3">
-        <v>43.88</v>
+        <v>20</v>
+      </c>
+      <c r="H320" s="4">
+        <v>80648</v>
       </c>
       <c r="I320" s="3">
-        <v>557</v>
+        <v>410</v>
       </c>
       <c r="J320" s="4">
-        <v>2924235</v>
+        <v>996741</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="C321" s="3">
-        <v>454</v>
+        <v>259</v>
       </c>
       <c r="D321" s="4">
-        <v>1384047</v>
+        <v>776530</v>
       </c>
       <c r="E321" s="3">
-        <v>262</v>
+        <v>142</v>
       </c>
       <c r="F321" s="4">
-        <v>1453071</v>
+        <v>721406</v>
       </c>
       <c r="G321" s="3">
-        <v>38</v>
-      </c>
-      <c r="H321" s="4">
-        <v>225659</v>
+        <v>18</v>
+      </c>
+      <c r="H321" s="3">
+        <v>68750</v>
       </c>
       <c r="I321" s="3">
-        <v>754</v>
+        <v>419</v>
       </c>
       <c r="J321" s="4">
-        <v>3062777</v>
+        <v>1566686</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="s">
-        <v>163</v>
+        <v>362</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="C322" s="3">
-        <v>89</v>
+        <v>267</v>
       </c>
       <c r="D322" s="4">
-        <v>164761</v>
+        <v>1012727</v>
       </c>
       <c r="E322" s="3">
-        <v>12</v>
+        <v>286</v>
       </c>
       <c r="F322" s="4">
-        <v>41385</v>
+        <v>1867628</v>
       </c>
       <c r="G322" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H322" s="3">
-        <v>0</v>
+        <v>43880</v>
       </c>
       <c r="I322" s="3">
-        <v>101</v>
+        <v>557</v>
       </c>
       <c r="J322" s="4">
-        <v>206146</v>
+        <v>2924235</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>390</v>
+        <v>359</v>
       </c>
       <c r="C323" s="3">
-        <v>71</v>
+        <v>454</v>
       </c>
       <c r="D323" s="4">
-        <v>133358</v>
+        <v>1384047</v>
       </c>
       <c r="E323" s="3">
-        <v>52</v>
+        <v>262</v>
       </c>
       <c r="F323" s="4">
-        <v>182176</v>
+        <v>1453071</v>
       </c>
       <c r="G323" s="3">
-        <v>0</v>
-      </c>
-      <c r="H323" s="3">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="H323" s="4">
+        <v>225659</v>
       </c>
       <c r="I323" s="3">
-        <v>123</v>
+        <v>754</v>
       </c>
       <c r="J323" s="4">
-        <v>315534</v>
+        <v>3062777</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
-        <v>391</v>
+        <v>148</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="C324" s="3">
-        <v>297</v>
-      </c>
-      <c r="D324" s="3">
-        <v>233.03899999999999</v>
+        <v>89</v>
+      </c>
+      <c r="D324" s="4">
+        <v>164761</v>
       </c>
       <c r="E324" s="3">
-        <v>544</v>
+        <v>12</v>
       </c>
       <c r="F324" s="4">
-        <v>596299</v>
+        <v>41385</v>
       </c>
       <c r="G324" s="3">
-        <v>7</v>
-      </c>
-      <c r="H324" s="4">
-        <v>21448</v>
+        <v>0</v>
+      </c>
+      <c r="H324" s="3">
+        <v>0</v>
       </c>
       <c r="I324" s="3">
-        <v>848</v>
+        <v>101</v>
       </c>
       <c r="J324" s="4">
-        <v>850786</v>
+        <v>206146</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
       <c r="C325" s="3">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D325" s="4">
-        <v>177160</v>
+        <v>133358</v>
       </c>
       <c r="E325" s="3">
-        <v>216</v>
+        <v>52</v>
       </c>
       <c r="F325" s="4">
-        <v>510410</v>
+        <v>182176</v>
       </c>
       <c r="G325" s="3">
-        <v>55</v>
-      </c>
-      <c r="H325" s="4">
-        <v>198319</v>
+        <v>0</v>
+      </c>
+      <c r="H325" s="3">
+        <v>0</v>
       </c>
       <c r="I325" s="3">
-        <v>338</v>
+        <v>123</v>
       </c>
       <c r="J325" s="4">
-        <v>885889</v>
+        <v>315534</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
-        <v>394</v>
+        <v>367</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="C326" s="3">
-        <v>180</v>
-      </c>
-      <c r="D326" s="4">
-        <v>928683</v>
+        <v>297</v>
+      </c>
+      <c r="D326" s="3">
+        <v>233.03899999999999</v>
       </c>
       <c r="E326" s="3">
-        <v>1</v>
-      </c>
-      <c r="F326" s="3">
-        <v>3.7490000000000001</v>
+        <v>544</v>
+      </c>
+      <c r="F326" s="4">
+        <v>596299</v>
       </c>
       <c r="G326" s="3">
-        <v>0</v>
-      </c>
-      <c r="H326" s="3">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="H326" s="4">
+        <v>21448</v>
       </c>
       <c r="I326" s="3">
-        <v>181</v>
+        <v>848</v>
       </c>
       <c r="J326" s="4">
-        <v>932432</v>
+        <v>850786</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
-        <v>396</v>
+        <v>369</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
       <c r="C327" s="3">
+        <v>67</v>
+      </c>
+      <c r="D327" s="4">
+        <v>177160</v>
+      </c>
+      <c r="E327" s="3">
+        <v>216</v>
+      </c>
+      <c r="F327" s="4">
+        <v>510410</v>
+      </c>
+      <c r="G327" s="3">
+        <v>55</v>
+      </c>
+      <c r="H327" s="4">
+        <v>198319</v>
+      </c>
+      <c r="I327" s="3">
+        <v>338</v>
+      </c>
+      <c r="J327" s="4">
+        <v>885889</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A328" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C328" s="3">
+        <v>180</v>
+      </c>
+      <c r="D328" s="4">
+        <v>928683</v>
+      </c>
+      <c r="E328" s="3">
+        <v>1</v>
+      </c>
+      <c r="F328" s="3">
+        <v>3.7490000000000001</v>
+      </c>
+      <c r="G328" s="3">
+        <v>0</v>
+      </c>
+      <c r="H328" s="3">
+        <v>0</v>
+      </c>
+      <c r="I328" s="3">
+        <v>181</v>
+      </c>
+      <c r="J328" s="4">
+        <v>932432</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A329" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C329" s="3">
         <v>26</v>
       </c>
-      <c r="D327" s="4">
+      <c r="D329" s="4">
         <v>66360</v>
       </c>
-      <c r="E327" s="3">
+      <c r="E329" s="3">
         <v>11</v>
       </c>
-      <c r="F327" s="4">
+      <c r="F329" s="4">
         <v>36658</v>
       </c>
-      <c r="G327" s="3">
+      <c r="G329" s="3">
         <v>0</v>
       </c>
-      <c r="H327" s="3">
+      <c r="H329" s="3">
         <v>0</v>
       </c>
-      <c r="I327" s="3">
+      <c r="I329" s="3">
         <v>37</v>
       </c>
-      <c r="J327" s="4">
+      <c r="J329" s="4">
         <v>103018</v>
       </c>
-    </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A328" s="3"/>
-      <c r="B328" s="3"/>
-      <c r="C328" s="3"/>
-      <c r="D328" s="3"/>
-      <c r="E328" s="3"/>
-      <c r="F328" s="3"/>
-      <c r="G328" s="3"/>
-      <c r="H328" s="3"/>
-      <c r="I328" s="3"/>
-      <c r="J328" s="3"/>
-    </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A329" s="3"/>
-      <c r="B329" s="3"/>
-      <c r="C329" s="3"/>
-      <c r="D329" s="3"/>
-      <c r="E329" s="3"/>
-      <c r="F329" s="3"/>
-      <c r="G329" s="3"/>
-      <c r="H329" s="3"/>
-      <c r="I329" s="3"/>
-      <c r="J329" s="3"/>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330" s="3"/>
@@ -12397,7 +12448,7 @@
       <c r="J354" s="3"/>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A355" s="2"/>
+      <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
@@ -12421,7 +12472,7 @@
       <c r="J356" s="3"/>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A357" s="3"/>
+      <c r="A357" s="2"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
@@ -12637,7 +12688,7 @@
       <c r="J374" s="3"/>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A375" s="2"/>
+      <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
@@ -12661,7 +12712,7 @@
       <c r="J376" s="3"/>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A377" s="3"/>
+      <c r="A377" s="2"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
@@ -12685,7 +12736,7 @@
       <c r="J378" s="3"/>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A379" s="2"/>
+      <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
@@ -12709,7 +12760,7 @@
       <c r="J380" s="3"/>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A381" s="3"/>
+      <c r="A381" s="2"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
@@ -20100,6 +20151,30 @@
       <c r="I996" s="3"/>
       <c r="J996" s="3"/>
     </row>
+    <row r="997" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A997" s="3"/>
+      <c r="B997" s="3"/>
+      <c r="C997" s="3"/>
+      <c r="D997" s="3"/>
+      <c r="E997" s="3"/>
+      <c r="F997" s="3"/>
+      <c r="G997" s="3"/>
+      <c r="H997" s="3"/>
+      <c r="I997" s="3"/>
+      <c r="J997" s="3"/>
+    </row>
+    <row r="998" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A998" s="3"/>
+      <c r="B998" s="3"/>
+      <c r="C998" s="3"/>
+      <c r="D998" s="3"/>
+      <c r="E998" s="3"/>
+      <c r="F998" s="3"/>
+      <c r="G998" s="3"/>
+      <c r="H998" s="3"/>
+      <c r="I998" s="3"/>
+      <c r="J998" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/input/DANE/1960.xlsx
+++ b/input/DANE/1960.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josetavera/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josetavera/Documents/HEC_Datos/input/DANE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4194E52-E646-CD4B-9E09-4067FBDB40B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF0DB913-F67D-B64E-AA81-77A59B88D53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="26740" windowHeight="13780" xr2:uid="{8C564586-D6AE-7F4D-BE10-9CB0ED15B90F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="399">
   <si>
     <t>Oficina</t>
   </si>
@@ -405,9 +405,6 @@
     <t>2,298,175</t>
   </si>
   <si>
-    <t>Samans</t>
-  </si>
-  <si>
     <t>Santa Rosa de Cabal</t>
   </si>
   <si>
@@ -420,9 +417,6 @@
     <t>Cauca</t>
   </si>
   <si>
-    <t>Bollvar</t>
-  </si>
-  <si>
     <t>Caloto</t>
   </si>
   <si>
@@ -1234,6 +1228,9 @@
   </si>
   <si>
     <t>Velez</t>
+  </si>
+  <si>
+    <t>Samana</t>
   </si>
 </sst>
 </file>
@@ -1606,8 +1603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B714299-56CA-6B49-9492-4AD2AA26DC3C}">
   <dimension ref="A1:L998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="A263" sqref="A263"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="A210" sqref="A210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2005,7 +2002,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>11</v>
@@ -2581,7 +2578,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>11</v>
@@ -2613,7 +2610,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>11</v>
@@ -2997,7 +2994,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>17</v>
@@ -3221,7 +3218,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>17</v>
@@ -3509,7 +3506,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>68</v>
@@ -3829,7 +3826,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>68</v>
@@ -3957,7 +3954,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>68</v>
@@ -4149,7 +4146,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>68</v>
@@ -4437,7 +4434,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>95</v>
@@ -4597,7 +4594,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>95</v>
@@ -4789,7 +4786,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>95</v>
@@ -5173,7 +5170,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>123</v>
+        <v>398</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>95</v>
@@ -5205,7 +5202,7 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>95</v>
@@ -5269,7 +5266,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>95</v>
@@ -5301,10 +5298,10 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B116" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="C116" s="4">
         <v>1008</v>
@@ -5333,10 +5330,10 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C117" s="3">
         <v>643</v>
@@ -5365,10 +5362,10 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C118" s="3">
         <v>512</v>
@@ -5397,10 +5394,10 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C119" s="3">
         <v>288</v>
@@ -5424,15 +5421,15 @@
         <v>495</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C120" s="3">
         <v>271</v>
@@ -5456,15 +5453,15 @@
         <v>502</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C121" s="3">
         <v>623</v>
@@ -5493,10 +5490,10 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C122" s="3">
         <v>136</v>
@@ -5525,10 +5522,10 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C123" s="3">
         <v>175</v>
@@ -5557,10 +5554,10 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C124" s="3">
         <v>939</v>
@@ -5589,10 +5586,10 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C125" s="3">
         <v>253</v>
@@ -5621,10 +5618,10 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C126" s="3">
         <v>670</v>
@@ -5653,10 +5650,10 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C127" s="3">
         <v>914</v>
@@ -5685,10 +5682,10 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C128" s="3">
         <v>603</v>
@@ -5717,10 +5714,10 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C129" s="3">
         <v>185</v>
@@ -5749,10 +5746,10 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C130" s="3">
         <v>731</v>
@@ -5781,10 +5778,10 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C131" s="3">
         <v>310</v>
@@ -5813,10 +5810,10 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C132" s="3">
         <v>383</v>
@@ -5845,10 +5842,10 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C133" s="3">
         <v>976</v>
@@ -5877,10 +5874,10 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C134" s="3">
         <v>168</v>
@@ -5909,10 +5906,10 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C135" s="3">
         <v>560</v>
@@ -5936,15 +5933,15 @@
         <v>1140</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C136" s="3">
         <v>328</v>
@@ -5968,15 +5965,15 @@
         <v>533</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C137" s="3">
         <v>528</v>
@@ -6005,10 +6002,10 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C138" s="3">
         <v>274</v>
@@ -6032,15 +6029,15 @@
         <v>638</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C139" s="3">
         <v>725</v>
@@ -6069,10 +6066,10 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C140" s="4">
         <v>1930</v>
@@ -6101,10 +6098,10 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C141" s="3">
         <v>695</v>
@@ -6133,10 +6130,10 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C142" s="3">
         <v>463</v>
@@ -6165,10 +6162,10 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C143" s="3">
         <v>359</v>
@@ -6192,15 +6189,15 @@
         <v>1410</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C144" s="3">
         <v>295</v>
@@ -6229,10 +6226,10 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C145" s="3">
         <v>1374</v>
@@ -6256,15 +6253,15 @@
         <v>1566</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C146" s="3">
         <v>287</v>
@@ -6293,10 +6290,10 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C147" s="4">
         <v>1317</v>
@@ -6325,10 +6322,10 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C148" s="3">
         <v>475</v>
@@ -6357,10 +6354,10 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C149" s="3">
         <v>784</v>
@@ -6389,10 +6386,10 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C150" s="3">
         <v>470</v>
@@ -6421,10 +6418,10 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C151" s="3">
         <v>748</v>
@@ -6453,10 +6450,10 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C152" s="3">
         <v>649</v>
@@ -6485,10 +6482,10 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C153" s="3">
         <v>863</v>
@@ -6512,15 +6509,15 @@
         <v>1613</v>
       </c>
       <c r="J153" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C154" s="3">
         <v>294</v>
@@ -6549,10 +6546,10 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C155" s="3">
         <v>340</v>
@@ -6576,15 +6573,15 @@
         <v>517</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C156" s="3">
         <v>300</v>
@@ -6613,10 +6610,10 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C157" s="3">
         <v>205</v>
@@ -6645,10 +6642,10 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C158" s="3">
         <v>411</v>
@@ -6677,10 +6674,10 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C159" s="3">
         <v>840</v>
@@ -6709,10 +6706,10 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C160" s="3">
         <v>598</v>
@@ -6741,10 +6738,10 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C161" s="3">
         <v>364</v>
@@ -6773,10 +6770,10 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C162" s="3">
         <v>337</v>
@@ -6805,10 +6802,10 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C163" s="3">
         <v>269</v>
@@ -6837,10 +6834,10 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C164" s="3">
         <v>185</v>
@@ -6869,10 +6866,10 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C165" s="3">
         <v>732</v>
@@ -6901,10 +6898,10 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C166" s="3">
         <v>635</v>
@@ -6933,10 +6930,10 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C167" s="3">
         <v>320</v>
@@ -6945,7 +6942,7 @@
         <v>472360</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F167" s="4">
         <v>118525</v>
@@ -6965,10 +6962,10 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C168" s="3">
         <v>435</v>
@@ -6992,15 +6989,15 @@
         <v>657</v>
       </c>
       <c r="J168" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C169" s="3">
         <v>726</v>
@@ -7024,15 +7021,15 @@
         <v>927</v>
       </c>
       <c r="J169" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C170" s="3">
         <v>367</v>
@@ -7061,10 +7058,10 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C171" s="3">
         <v>387</v>
@@ -7093,10 +7090,10 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C172" s="3">
         <v>85</v>
@@ -7125,10 +7122,10 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C173" s="3">
         <v>325</v>
@@ -7157,10 +7154,10 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C174" s="3">
         <v>315</v>
@@ -7189,10 +7186,10 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C175" s="3">
         <v>835</v>
@@ -7204,7 +7201,7 @@
         <v>200</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G175" s="3">
         <v>121</v>
@@ -7221,10 +7218,10 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C176" s="3">
         <v>344</v>
@@ -7253,10 +7250,10 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C177" s="3">
         <v>173</v>
@@ -7285,10 +7282,10 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C178" s="3">
         <v>640</v>
@@ -7312,15 +7309,15 @@
         <v>743</v>
       </c>
       <c r="J178" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C179" s="3">
         <v>360</v>
@@ -7344,15 +7341,15 @@
         <v>557</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C180" s="3">
         <v>603</v>
@@ -7376,15 +7373,15 @@
         <v>830</v>
       </c>
       <c r="J180" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C181" s="3">
         <v>395</v>
@@ -7413,10 +7410,10 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C182" s="3">
         <v>324</v>
@@ -7445,10 +7442,10 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C183" s="3">
         <v>166</v>
@@ -7477,16 +7474,16 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C184" s="3">
         <v>1247</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E184" s="6">
         <v>1502</v>
@@ -7501,7 +7498,7 @@
         <v>927731</v>
       </c>
       <c r="I184" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J184" s="5">
         <v>14669.715</v>
@@ -7509,10 +7506,10 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C185" s="3">
         <v>466</v>
@@ -7541,10 +7538,10 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C186" s="3">
         <v>301</v>
@@ -7573,10 +7570,10 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C187" s="3">
         <v>229</v>
@@ -7605,10 +7602,10 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C188" s="3">
         <v>269</v>
@@ -7637,10 +7634,10 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C189" s="3">
         <v>617</v>
@@ -7669,10 +7666,10 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C190" s="3">
         <v>470</v>
@@ -7701,10 +7698,10 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C191" s="3">
         <v>240</v>
@@ -7733,10 +7730,10 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C192" s="3">
         <v>418</v>
@@ -7760,15 +7757,15 @@
         <v>729</v>
       </c>
       <c r="J192" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C193" s="3">
         <v>338</v>
@@ -7797,10 +7794,10 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C194" s="3">
         <v>667</v>
@@ -7829,10 +7826,10 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C195" s="3">
         <v>321</v>
@@ -7861,10 +7858,10 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C196" s="3">
         <v>266</v>
@@ -7893,10 +7890,10 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C197" s="3">
         <v>258</v>
@@ -7925,10 +7922,10 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C198" s="3">
         <v>652</v>
@@ -7957,10 +7954,10 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C199" s="3">
         <v>341</v>
@@ -7989,10 +7986,10 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C200" s="3">
         <v>564</v>
@@ -8021,10 +8018,10 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C201" s="3">
         <v>580</v>
@@ -8048,15 +8045,15 @@
         <v>1009</v>
       </c>
       <c r="J201" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C202" s="3">
         <v>279</v>
@@ -8085,10 +8082,10 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C203" s="3">
         <v>227</v>
@@ -8117,10 +8114,10 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C204" s="3">
         <v>133</v>
@@ -8144,15 +8141,15 @@
         <v>301</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C205" s="3">
         <v>167</v>
@@ -8181,10 +8178,10 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C206" s="3">
         <v>434</v>
@@ -8213,10 +8210,10 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C207" s="3">
         <v>292</v>
@@ -8245,10 +8242,10 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C208" s="3">
         <v>318</v>
@@ -8277,10 +8274,10 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C209" s="3">
         <v>423</v>
@@ -8309,10 +8306,10 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C210" s="3">
         <v>869</v>
@@ -8341,10 +8338,10 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C211" s="3">
         <v>897</v>
@@ -8373,10 +8370,10 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C212" s="3">
         <v>274</v>
@@ -8408,7 +8405,7 @@
         <v>25</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C213" s="3">
         <v>254</v>
@@ -8437,10 +8434,10 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C214" s="3">
         <v>330</v>
@@ -8469,10 +8466,10 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C215" s="3">
         <v>319</v>
@@ -8501,10 +8498,10 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C216" s="3">
         <v>604</v>
@@ -8533,10 +8530,10 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C217" s="3">
         <v>239</v>
@@ -8565,10 +8562,10 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C218" s="4">
         <v>1847</v>
@@ -8597,10 +8594,10 @@
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C219" s="3">
         <v>630</v>
@@ -8629,10 +8626,10 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C220" s="3">
         <v>312</v>
@@ -8661,10 +8658,10 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C221" s="4">
         <v>1009</v>
@@ -8693,10 +8690,10 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C222" s="3">
         <v>895</v>
@@ -8725,10 +8722,10 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C223" s="4">
         <v>1014</v>
@@ -8757,10 +8754,10 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C224" s="3">
         <v>952</v>
@@ -8789,10 +8786,10 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C225" s="3">
         <v>802</v>
@@ -8813,7 +8810,7 @@
         <v>117054</v>
       </c>
       <c r="I225" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J225" s="4">
         <v>1426700</v>
@@ -8821,10 +8818,10 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C226" s="4">
         <v>1153</v>
@@ -8836,7 +8833,7 @@
         <v>239</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G226" s="3">
         <v>2</v>
@@ -8853,22 +8850,22 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C227" s="4">
         <v>1121</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E227" s="3">
         <v>438</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G227" s="3">
         <v>62</v>
@@ -8885,10 +8882,10 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C228" s="3">
         <v>593</v>
@@ -8917,10 +8914,10 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C229" s="3">
         <v>326</v>
@@ -8949,10 +8946,10 @@
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C230" s="3">
         <v>738</v>
@@ -8981,10 +8978,10 @@
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C231" s="3">
         <v>291</v>
@@ -9013,10 +9010,10 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C232" s="3">
         <v>253</v>
@@ -9045,10 +9042,10 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C233" s="3">
         <v>368</v>
@@ -9077,10 +9074,10 @@
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C234" s="3">
         <v>468</v>
@@ -9109,10 +9106,10 @@
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C235" s="3">
         <v>760</v>
@@ -9141,10 +9138,10 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C236" s="4">
         <v>1089</v>
@@ -9173,10 +9170,10 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C237" s="3">
         <v>328</v>
@@ -9205,10 +9202,10 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C238" s="3">
         <v>606</v>
@@ -9237,10 +9234,10 @@
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C239" s="3">
         <v>854</v>
@@ -9269,10 +9266,10 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C240" s="3">
         <v>3253</v>
@@ -9301,10 +9298,10 @@
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C241" s="3">
         <v>503</v>
@@ -9325,18 +9322,18 @@
         <v>183090</v>
       </c>
       <c r="I241" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J241" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C242" s="3">
         <v>379</v>
@@ -9365,10 +9362,10 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C243" s="3">
         <v>257</v>
@@ -9392,15 +9389,15 @@
         <v>648</v>
       </c>
       <c r="J243" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C244" s="3">
         <v>964</v>
@@ -9424,15 +9421,15 @@
         <v>1234</v>
       </c>
       <c r="J244" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C245" s="3">
         <v>912</v>
@@ -9461,10 +9458,10 @@
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C246" s="3">
         <v>466</v>
@@ -9493,10 +9490,10 @@
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C247" s="3">
         <v>624</v>
@@ -9525,10 +9522,10 @@
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C248" s="4">
         <v>1923</v>
@@ -9557,10 +9554,10 @@
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C249" s="3">
         <v>489</v>
@@ -9589,10 +9586,10 @@
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C250" s="3">
         <v>267</v>
@@ -9621,10 +9618,10 @@
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C251" s="3">
         <v>466</v>
@@ -9653,10 +9650,10 @@
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C252" s="3">
         <v>580</v>
@@ -9685,10 +9682,10 @@
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C253" s="3">
         <v>706</v>
@@ -9717,10 +9714,10 @@
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C254" s="3">
         <v>612</v>
@@ -9752,7 +9749,7 @@
         <v>35</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C255" s="3">
         <v>581</v>
@@ -9781,10 +9778,10 @@
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C256" s="4">
         <v>1069</v>
@@ -9808,21 +9805,21 @@
         <v>1630</v>
       </c>
       <c r="J256" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C257" s="4">
         <v>1415</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E257" s="3">
         <v>237</v>
@@ -9845,10 +9842,10 @@
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C258" s="3">
         <v>401</v>
@@ -9877,16 +9874,16 @@
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C259" s="3">
         <v>591</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E259" s="3">
         <v>328</v>
@@ -9909,10 +9906,10 @@
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C260" s="3">
         <v>565</v>
@@ -9944,7 +9941,7 @@
         <v>66</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C261" s="3">
         <v>617</v>
@@ -9968,15 +9965,15 @@
         <v>1328</v>
       </c>
       <c r="J261" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C262" s="3">
         <v>180</v>
@@ -10005,10 +10002,10 @@
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C263" s="3">
         <v>320</v>
@@ -10037,10 +10034,10 @@
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C264" s="3">
         <v>300</v>
@@ -10069,10 +10066,10 @@
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C265" s="3">
         <v>888</v>
@@ -10101,10 +10098,10 @@
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C266" s="3">
         <v>186</v>
@@ -10133,10 +10130,10 @@
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C267" s="3">
         <v>256</v>
@@ -10165,10 +10162,10 @@
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C268" s="3">
         <v>278</v>
@@ -10197,10 +10194,10 @@
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C269" s="3">
         <v>287</v>
@@ -10229,10 +10226,10 @@
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C270" s="3">
         <v>319</v>
@@ -10261,10 +10258,10 @@
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C271" s="3">
         <v>275</v>
@@ -10293,10 +10290,10 @@
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C272" s="3">
         <v>274</v>
@@ -10325,10 +10322,10 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C273" s="4">
         <v>2061</v>
@@ -10357,10 +10354,10 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C274" s="3">
         <v>207</v>
@@ -10389,16 +10386,16 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C275" s="3">
         <v>939</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E275" s="3">
         <v>254</v>
@@ -10421,16 +10418,16 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C276" s="4">
         <v>1602</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E276" s="3">
         <v>303</v>
@@ -10453,10 +10450,10 @@
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C277" s="3">
         <v>177</v>
@@ -10485,10 +10482,10 @@
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C278" s="3">
         <v>392</v>
@@ -10517,10 +10514,10 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C279" s="3">
         <v>269</v>
@@ -10549,10 +10546,10 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C280" s="3">
         <v>127</v>
@@ -10581,10 +10578,10 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C281" s="3">
         <v>665</v>
@@ -10613,10 +10610,10 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C282" s="4">
         <v>1133</v>
@@ -10645,10 +10642,10 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C283" s="3">
         <v>95</v>
@@ -10677,10 +10674,10 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C284" s="3">
         <v>190</v>
@@ -10709,10 +10706,10 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C285" s="3">
         <v>370</v>
@@ -10741,10 +10738,10 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C286" s="3">
         <v>582</v>
@@ -10773,10 +10770,10 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C287" s="3">
         <v>738</v>
@@ -10805,10 +10802,10 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C288" s="3">
         <v>131</v>
@@ -10837,10 +10834,10 @@
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C289" s="3">
         <v>819</v>
@@ -10869,10 +10866,10 @@
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C290" s="3">
         <v>337</v>
@@ -10901,10 +10898,10 @@
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C291" s="3">
         <v>666</v>
@@ -10933,10 +10930,10 @@
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C292" s="3">
         <v>153</v>
@@ -10965,10 +10962,10 @@
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C293" s="3">
         <v>203</v>
@@ -10997,10 +10994,10 @@
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C294" s="3">
         <v>260</v>
@@ -11029,10 +11026,10 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C295" s="3">
         <v>477</v>
@@ -11061,10 +11058,10 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C296" s="3">
         <v>839</v>
@@ -11093,10 +11090,10 @@
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C297" s="3">
         <v>225</v>
@@ -11125,10 +11122,10 @@
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C298" s="3">
         <v>261</v>
@@ -11157,10 +11154,10 @@
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C299" s="3">
         <v>596</v>
@@ -11189,10 +11186,10 @@
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C300" s="3">
         <v>30</v>
@@ -11221,10 +11218,10 @@
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C301" s="3">
         <v>272</v>
@@ -11236,7 +11233,7 @@
         <v>109</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G301" s="3">
         <v>16</v>
@@ -11253,10 +11250,10 @@
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C302" s="3">
         <v>668</v>
@@ -11285,10 +11282,10 @@
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C303" s="3">
         <v>320</v>
@@ -11317,10 +11314,10 @@
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C304" s="3">
         <v>313</v>
@@ -11349,10 +11346,10 @@
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C305" s="3">
         <v>131</v>
@@ -11381,10 +11378,10 @@
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C306" s="3">
         <v>402</v>
@@ -11413,10 +11410,10 @@
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C307" s="3">
         <v>665</v>
@@ -11445,10 +11442,10 @@
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C308" s="3">
         <v>324</v>
@@ -11477,10 +11474,10 @@
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C309" s="3">
         <v>395</v>
@@ -11509,10 +11506,10 @@
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C310" s="3">
         <v>505</v>
@@ -11541,10 +11538,10 @@
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C311" s="3">
         <v>535</v>
@@ -11573,10 +11570,10 @@
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C312" s="3">
         <v>173</v>
@@ -11605,10 +11602,10 @@
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C313" s="3">
         <v>572</v>
@@ -11637,10 +11634,10 @@
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C314" s="3">
         <v>141</v>
@@ -11669,10 +11666,10 @@
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C315" s="3">
         <v>76</v>
@@ -11701,10 +11698,10 @@
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C316" s="3">
         <v>200</v>
@@ -11728,15 +11725,15 @@
         <v>940</v>
       </c>
       <c r="J316" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C317" s="3">
         <v>914</v>
@@ -11765,10 +11762,10 @@
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C318" s="3">
         <v>207</v>
@@ -11797,10 +11794,10 @@
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C319" s="3">
         <v>311</v>
@@ -11829,10 +11826,10 @@
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C320" s="3">
         <v>264</v>
@@ -11861,10 +11858,10 @@
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C321" s="3">
         <v>259</v>
@@ -11893,10 +11890,10 @@
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C322" s="3">
         <v>267</v>
@@ -11925,10 +11922,10 @@
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C323" s="3">
         <v>454</v>
@@ -11957,10 +11954,10 @@
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C324" s="3">
         <v>89</v>
@@ -11989,10 +11986,10 @@
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C325" s="3">
         <v>71</v>
@@ -12021,10 +12018,10 @@
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C326" s="3">
         <v>297</v>
@@ -12053,10 +12050,10 @@
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C327" s="3">
         <v>67</v>
@@ -12085,10 +12082,10 @@
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C328" s="3">
         <v>180</v>
@@ -12117,10 +12114,10 @@
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C329" s="3">
         <v>26</v>
